--- a/consulta_juridica/Tabela Atualizada.xlsx
+++ b/consulta_juridica/Tabela Atualizada.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Encontrado</t>
+          <t>Não Encontrado</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Encontrado</t>
+          <t>Não Encontrado</t>
         </is>
       </c>
     </row>
